--- a/Mifos Automation Excels/Client/2501-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2501-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-AMT-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -155,9 +150,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Amount</t>
   </si>
   <si>
@@ -176,12 +168,6 @@
     <t>$ 950</t>
   </si>
   <si>
-    <t>$ 863.23</t>
-  </si>
-  <si>
-    <t>$ 822.73</t>
-  </si>
-  <si>
     <t>$ 40.5</t>
   </si>
   <si>
@@ -197,17 +183,26 @@
     <t>Accrual</t>
   </si>
   <si>
-    <t>$ 537.27</t>
-  </si>
-  <si>
     <t>$ 1,000</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>$ 873.83</t>
+  </si>
+  <si>
+    <t>$ 833.33</t>
+  </si>
+  <si>
+    <t>$ 537.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +226,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -354,14 +357,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +427,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -455,26 +460,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,23 +495,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -861,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
@@ -1535,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,41 +1525,43 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>3641</v>
+        <v>214</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1600,10 +1573,10 @@
         <v>34</v>
       </c>
       <c r="E2" s="6">
-        <v>863.23</v>
+        <v>873.83</v>
       </c>
       <c r="F2" s="6">
-        <v>822.73</v>
+        <v>833.33</v>
       </c>
       <c r="G2" s="6">
         <v>40.5</v>
@@ -1615,14 +1588,14 @@
         <v>0</v>
       </c>
       <c r="J2" s="9">
-        <v>8227.27</v>
+        <v>8216.67</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>3638</v>
+        <v>212</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1656,7 +1629,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3636</v>
+        <v>210</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1690,7 +1663,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>3642</v>
+        <v>215</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1699,16 +1672,16 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6">
-        <v>537.27</v>
+        <v>537.16999999999996</v>
       </c>
       <c r="F5" s="6">
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>537.27</v>
+        <v>537.16999999999996</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -1724,7 +1697,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>3634</v>
+        <v>208</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1753,8 +1726,8 @@
       <c r="J6" s="8">
         <v>5000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1834,7 +1807,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -1862,7 +1835,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1875,7 +1848,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1917,7 @@
       </c>
       <c r="H2" s="17"/>
       <c r="I2" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1966,12 +1939,12 @@
       <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
+      <c r="G3" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1996,8 +1969,8 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="23" t="s">
-        <v>57</v>
+      <c r="H4" s="21" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2052,7 @@
         <v>33</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="14"/>
     </row>
@@ -2107,7 +2080,7 @@
       </c>
       <c r="H3" s="14"/>
       <c r="I3" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2093,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2133,7 +2106,7 @@
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="12" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
@@ -2189,8 +2162,8 @@
         <v>33</v>
       </c>
       <c r="H2" s="19"/>
-      <c r="I2" s="20" t="s">
-        <v>50</v>
+      <c r="I2" s="23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2212,12 +2185,12 @@
       <c r="F3" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>36</v>
+      <c r="G3" t="s">
+        <v>50</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="20" t="s">
-        <v>51</v>
+      <c r="I3" s="23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2242,13 +2215,14 @@
       <c r="G4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>49</v>
+      <c r="H4" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="I4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2257,7 +2231,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2275,31 +2249,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2314,19 +2288,19 @@
         <v>42036</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>31</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2340,19 +2314,19 @@
         <v>42036</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="22" t="s">
-        <v>56</v>
+      <c r="I3" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
